--- a/problems/demands/max.xlsx
+++ b/problems/demands/max.xlsx
@@ -120,7 +120,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -194,7 +188,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -517,7 +511,7 @@
     <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -545,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -559,7 +553,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -573,7 +567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -587,7 +581,7 @@
         <v>364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -601,7 +595,7 @@
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -615,7 +609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -629,7 +623,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -643,7 +637,7 @@
         <v>142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -657,7 +651,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -671,7 +665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -685,7 +679,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -699,7 +693,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -713,7 +707,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -727,7 +721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -741,7 +735,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -755,7 +749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -769,7 +763,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -783,7 +777,7 @@
         <v>281</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -797,7 +791,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -811,7 +805,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -825,7 +819,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -839,7 +833,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -853,7 +847,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -867,7 +861,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -881,7 +875,7 @@
         <v>234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -895,7 +889,7 @@
         <v>318</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -909,12 +903,12 @@
         <v>345</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="4">
-        <v>1708</v>
+        <v>0</v>
       </c>
       <c r="C29" s="4">
         <v>732</v>
@@ -923,12 +917,12 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="4">
-        <v>1154</v>
+        <v>0</v>
       </c>
       <c r="C30" s="4">
         <v>336</v>
